--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution.xlsx
@@ -901,12 +901,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="AL25" sqref="AL25"/>
+      <selection pane="topRight" activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +916,7 @@
     <col min="31" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1031,8 +1031,11 @@
       <c r="AL1" s="1">
         <v>43929</v>
       </c>
+      <c r="AM1" s="1">
+        <v>43930</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1147,8 +1150,11 @@
       <c r="AL2">
         <v>460</v>
       </c>
+      <c r="AM2">
+        <v>488</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1263,8 +1269,11 @@
       <c r="AL3">
         <v>498</v>
       </c>
+      <c r="AM3">
+        <v>521</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1379,8 +1388,11 @@
       <c r="AL4">
         <v>0</v>
       </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1495,8 +1507,11 @@
       <c r="AL5">
         <v>138</v>
       </c>
+      <c r="AM5">
+        <v>144</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1611,8 +1626,11 @@
       <c r="AL6">
         <v>0</v>
       </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1727,8 +1745,11 @@
       <c r="AL7">
         <v>151</v>
       </c>
+      <c r="AM7">
+        <v>156</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1843,8 +1864,11 @@
       <c r="AL8">
         <v>24</v>
       </c>
+      <c r="AM8">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1959,8 +1983,11 @@
       <c r="AL9">
         <v>20</v>
       </c>
+      <c r="AM9">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2075,8 +2102,11 @@
       <c r="AL10">
         <v>0</v>
       </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2191,8 +2221,11 @@
       <c r="AL11">
         <v>5</v>
       </c>
+      <c r="AM11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2307,8 +2340,11 @@
       <c r="AL12">
         <v>4</v>
       </c>
+      <c r="AM12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2423,8 +2459,11 @@
       <c r="AL13">
         <v>9</v>
       </c>
+      <c r="AM13">
+        <v>14</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2539,8 +2578,11 @@
       <c r="AL14">
         <v>38</v>
       </c>
+      <c r="AM14">
+        <v>40</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2655,8 +2697,11 @@
       <c r="AL15">
         <v>3</v>
       </c>
+      <c r="AM15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2771,8 +2816,11 @@
       <c r="AL16">
         <v>70</v>
       </c>
+      <c r="AM16">
+        <v>77</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2887,8 +2935,11 @@
       <c r="AL17">
         <v>22</v>
       </c>
+      <c r="AM17">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3003,8 +3054,11 @@
       <c r="AL18">
         <v>3</v>
       </c>
+      <c r="AM18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3119,8 +3173,11 @@
       <c r="AL19">
         <v>1</v>
       </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3235,8 +3292,11 @@
       <c r="AL20">
         <v>11</v>
       </c>
+      <c r="AM20">
+        <v>11</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3351,8 +3411,11 @@
       <c r="AL21">
         <v>31</v>
       </c>
+      <c r="AM21">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3467,8 +3530,11 @@
       <c r="AL22">
         <v>189</v>
       </c>
+      <c r="AM22">
+        <v>196</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3583,8 +3649,11 @@
       <c r="AL23">
         <v>9</v>
       </c>
+      <c r="AM23">
+        <v>9</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3699,8 +3768,11 @@
       <c r="AL24">
         <v>81</v>
       </c>
+      <c r="AM24">
+        <v>81</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3814,6 +3886,9 @@
       </c>
       <c r="AL25">
         <v>28</v>
+      </c>
+      <c r="AM25">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution.xlsx
@@ -901,12 +901,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="AM1" sqref="AM1"/>
+      <selection pane="topRight" activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,9 +914,10 @@
     <col min="2" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1034,8 +1035,11 @@
       <c r="AM1" s="1">
         <v>43930</v>
       </c>
+      <c r="AN1" s="1">
+        <v>43931</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1153,8 +1157,11 @@
       <c r="AM2">
         <v>488</v>
       </c>
+      <c r="AN2">
+        <v>507</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1272,8 +1279,11 @@
       <c r="AM3">
         <v>521</v>
       </c>
+      <c r="AN3">
+        <v>532</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1391,8 +1401,11 @@
       <c r="AM4">
         <v>0</v>
       </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1510,8 +1523,11 @@
       <c r="AM5">
         <v>144</v>
       </c>
+      <c r="AN5">
+        <v>149</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1629,8 +1645,11 @@
       <c r="AM6">
         <v>0</v>
       </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1748,8 +1767,11 @@
       <c r="AM7">
         <v>156</v>
       </c>
+      <c r="AN7">
+        <v>169</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1867,8 +1889,11 @@
       <c r="AM8">
         <v>24</v>
       </c>
+      <c r="AN8">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1986,8 +2011,11 @@
       <c r="AM9">
         <v>22</v>
       </c>
+      <c r="AN9">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2105,8 +2133,11 @@
       <c r="AM10">
         <v>0</v>
       </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2224,8 +2255,11 @@
       <c r="AM11">
         <v>5</v>
       </c>
+      <c r="AN11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2343,8 +2377,11 @@
       <c r="AM12">
         <v>4</v>
       </c>
+      <c r="AN12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2462,8 +2499,11 @@
       <c r="AM13">
         <v>14</v>
       </c>
+      <c r="AN13">
+        <v>14</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2581,8 +2621,11 @@
       <c r="AM14">
         <v>40</v>
       </c>
+      <c r="AN14">
+        <v>49</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2700,8 +2743,11 @@
       <c r="AM15">
         <v>3</v>
       </c>
+      <c r="AN15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2819,8 +2865,11 @@
       <c r="AM16">
         <v>77</v>
       </c>
+      <c r="AN16">
+        <v>84</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2938,8 +2987,11 @@
       <c r="AM17">
         <v>35</v>
       </c>
+      <c r="AN17">
+        <v>42</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3057,8 +3109,11 @@
       <c r="AM18">
         <v>3</v>
       </c>
+      <c r="AN18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3176,8 +3231,11 @@
       <c r="AM19">
         <v>1</v>
       </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3295,8 +3353,11 @@
       <c r="AM20">
         <v>11</v>
       </c>
+      <c r="AN20">
+        <v>11</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3414,8 +3475,11 @@
       <c r="AM21">
         <v>31</v>
       </c>
+      <c r="AN21">
+        <v>37</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3533,8 +3597,11 @@
       <c r="AM22">
         <v>196</v>
       </c>
+      <c r="AN22">
+        <v>197</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3652,8 +3719,11 @@
       <c r="AM23">
         <v>9</v>
       </c>
+      <c r="AN23">
+        <v>9</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3771,8 +3841,11 @@
       <c r="AM24">
         <v>81</v>
       </c>
+      <c r="AN24">
+        <v>83</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3888,6 +3961,9 @@
         <v>28</v>
       </c>
       <c r="AM25">
+        <v>29</v>
+      </c>
+      <c r="AN25">
         <v>29</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution.xlsx
@@ -901,12 +901,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN25"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="AN8" sqref="AN8"/>
+      <selection pane="topRight" activeCell="AO25" sqref="AO25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,9 +915,10 @@
     <col min="9" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="10.28515625" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1038,8 +1039,11 @@
       <c r="AN1" s="1">
         <v>43931</v>
       </c>
+      <c r="AO1" s="1">
+        <v>43932</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1160,8 +1164,11 @@
       <c r="AN2">
         <v>507</v>
       </c>
+      <c r="AO2">
+        <v>544</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1282,8 +1289,11 @@
       <c r="AN3">
         <v>532</v>
       </c>
+      <c r="AO3">
+        <v>578</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1404,8 +1414,11 @@
       <c r="AN4">
         <v>0</v>
       </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1526,8 +1539,11 @@
       <c r="AN5">
         <v>149</v>
       </c>
+      <c r="AO5">
+        <v>149</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1648,8 +1664,11 @@
       <c r="AN6">
         <v>0</v>
       </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1770,8 +1789,11 @@
       <c r="AN7">
         <v>169</v>
       </c>
+      <c r="AO7">
+        <v>201</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1892,8 +1914,11 @@
       <c r="AN8">
         <v>24</v>
       </c>
+      <c r="AO8">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2014,8 +2039,11 @@
       <c r="AN9">
         <v>22</v>
       </c>
+      <c r="AO9">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2136,8 +2164,11 @@
       <c r="AN10">
         <v>0</v>
       </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2258,8 +2289,11 @@
       <c r="AN11">
         <v>5</v>
       </c>
+      <c r="AO11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2380,8 +2414,11 @@
       <c r="AN12">
         <v>5</v>
       </c>
+      <c r="AO12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2502,8 +2539,11 @@
       <c r="AN13">
         <v>14</v>
       </c>
+      <c r="AO13">
+        <v>18</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2624,8 +2664,11 @@
       <c r="AN14">
         <v>49</v>
       </c>
+      <c r="AO14">
+        <v>54</v>
+      </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2746,8 +2789,11 @@
       <c r="AN15">
         <v>3</v>
       </c>
+      <c r="AO15">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2868,8 +2914,11 @@
       <c r="AN16">
         <v>84</v>
       </c>
+      <c r="AO16">
+        <v>85</v>
+      </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2990,8 +3039,11 @@
       <c r="AN17">
         <v>42</v>
       </c>
+      <c r="AO17">
+        <v>65</v>
+      </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3112,8 +3164,11 @@
       <c r="AN18">
         <v>3</v>
       </c>
+      <c r="AO18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3234,8 +3289,11 @@
       <c r="AN19">
         <v>1</v>
       </c>
+      <c r="AO19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3356,8 +3414,11 @@
       <c r="AN20">
         <v>11</v>
       </c>
+      <c r="AO20">
+        <v>11</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3478,8 +3539,11 @@
       <c r="AN21">
         <v>37</v>
       </c>
+      <c r="AO21">
+        <v>40</v>
+      </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3600,8 +3664,11 @@
       <c r="AN22">
         <v>197</v>
       </c>
+      <c r="AO22">
+        <v>200</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3722,8 +3789,11 @@
       <c r="AN23">
         <v>9</v>
       </c>
+      <c r="AO23">
+        <v>12</v>
+      </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3844,8 +3914,11 @@
       <c r="AN24">
         <v>83</v>
       </c>
+      <c r="AO24">
+        <v>91</v>
+      </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3965,6 +4038,9 @@
       </c>
       <c r="AN25">
         <v>29</v>
+      </c>
+      <c r="AO25">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
